--- a/biology/Botanique/Parc_du_Plessis-Tison/Parc_du_Plessis-Tison.xlsx
+++ b/biology/Botanique/Parc_du_Plessis-Tison/Parc_du_Plessis-Tison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc du Plessis-Tison est un jardin paysager ouvert au public de la ville de Nantes d'une superficie de 1,394 ha[1], il se trouve dans le quartier Nantes Erdre.
+Le parc du Plessis-Tison est un jardin paysager ouvert au public de la ville de Nantes d'une superficie de 1,394 ha, il se trouve dans le quartier Nantes Erdre.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son entrée principale est située au rond-point de Paris, à l'angle des boulevards Jules-Verne à l'est et des Belges au sud. Il est limité à l'ouest par la rue de Racapé et est mitoyen du lycée Blanche-de-Castille au nord.
 </t>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château[coord 1] et le domaine du Plessis-Tison ont appartenu à la famille de la Tullaye jusqu'en 1929, date à laquelle le marquis René de la Tullaye acheva le morcellement de sa propriété, avec la vente du château lui-même à la communauté des sœurs Ursulines de Nantes pour y installer le lycée Blanche-de-Castille. Le reste du domaine fut vendu en plusieurs lots qui seront très vite construits[2]. 
-Le parc a été créé, à la suite de l'achat en 1926 par la municipalité d'une partie de ce domaine[2],[3].
-Il fut progressivement aménagé durant les années 1930[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château[coord 1] et le domaine du Plessis-Tison ont appartenu à la famille de la Tullaye jusqu'en 1929, date à laquelle le marquis René de la Tullaye acheva le morcellement de sa propriété, avec la vente du château lui-même à la communauté des sœurs Ursulines de Nantes pour y installer le lycée Blanche-de-Castille. Le reste du domaine fut vendu en plusieurs lots qui seront très vite construits. 
+Le parc a été créé, à la suite de l'achat en 1926 par la municipalité d'une partie de ce domaine,.
+Il fut progressivement aménagé durant les années 1930.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cernés de hauts murs, notamment le long des boulevards, il comporte une pataugeoire - héritière d'une ancienne pièce d'eau visible sur les anciens plans - et des jeux destinés aux enfants. 
 On y trouve de nombreuses espèces de chênes.
